--- a/src/DataSheet/ScenarioMatrix.xlsx
+++ b/src/DataSheet/ScenarioMatrix.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prakashp\Downloads\GherkinGenerator\src\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView windowHeight="7665" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Shares" sheetId="1" r:id="rId1"/>
+    <sheet name="Shares" r:id="rId1" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Shares!$A$1:$AC$84</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Shares!$A$1:$AB$84</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="180">
   <si>
     <t>TC_01</t>
   </si>
@@ -501,6 +501,31 @@
   </si>
   <si>
     <t xml:space="preserve">Valid User Name and Password </t>
+  </si>
+  <si>
+    <t>Update_Feature</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Given Login is Valid User Name and Password 
+And AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Buy Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Pre Session
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Market
+And LimitType is Good till day
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And CommitANDvalidate should be Clicked
+And Accountingentries should be Checked</t>
   </si>
   <si>
     <t>TC01_scenario1</t>
@@ -592,22 +617,17 @@
     <t>TC05_scenario5</t>
   </si>
   <si>
-    <t>Update_Feature</t>
-  </si>
-  <si>
-    <t>Pre_NewColumn</t>
-  </si>
-  <si>
     <t>Given Login is Valid User Name and Password 
-And NewColumn is updated1
-And AccountStatus is updated
+And AccountStatus is Active
 And PortfolioCreated is Yes
 And SufficientFunds is Yes
-And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Buy Order
-When TradeActivity is New
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
 And TradeDate is Current
 And Session is Pre Session
-And Order is Buy
+And Order is Sell
 And Currency is LCY
 And TypeofOrder is Market
 And LimitType is Good till day
@@ -618,16 +638,100 @@
 And Accountingentries should be Checked</t>
   </si>
   <si>
-    <t>added1</t>
-  </si>
-  <si>
-    <t>added2</t>
+    <t>TC06_scenario6</t>
+  </si>
+  <si>
+    <t>Given Login is Valid User Name and Password 
+And AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; delete screen
+When DealReferene is Yes
+And TradeActivity is Delete
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is FCY
+And TypeofOrder is Market
+And LimitType is Good till day
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>TC07_scenario7</t>
+  </si>
+  <si>
+    <t>Given Login is Valid User Name and Password 
+And AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt;reverse screen
+When DealReferene is Yes
+And TradeActivity is Reverse
+And TradeDate is Current
+And Session is Continuous
+And Order is Sell
+And Currency is LCY
+And TypeofOrder is Market
+And LimitType is Good till day
+And Commitandvalidate is Yes</t>
+  </si>
+  <si>
+    <t>TC08_scenario8</t>
+  </si>
+  <si>
+    <t>Given Login is Valid User Name and Password 
+And AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And Navigation is T24 Home Screen &gt;  Navigate to &gt; Private Operation &gt; Securities &gt; Front office &gt; Direct ordering &gt; Single orders &gt; Order entry &gt;Buy Order
+When TradeActivity is New
+And TradeDate is Current
+And Session is Continuous
+And Order is Buy
+And Currency is LCY
+And TypeofOrder is Limit
+And LimitType is Good till Week
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And CommitANDvalidate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>TC09_scenario9</t>
+  </si>
+  <si>
+    <t>Given Login is Valid User Name and Password 
+And AccountStatus is Active
+And PortfolioCreated is Yes
+And SufficientFunds is Yes
+And OrderPlaced is Yes
+And Navigation is Navigate &gt; Private Operation &gt; Securities &gt; Front office &gt; amendment screen
+When DealReferene is Yes
+And TradeActivity is Amend
+And TradeDate is Current
+And Session is Close
+And Order is Buy
+And Currency is FCY
+And TypeofOrder is Limit
+And LimitType is Good till Week
+And Commitandvalidate is Yes
+Then PostionTransfer should be Yes
+And Navigate should be T24 Home Screen &gt;  Retail operation &gt; accounts &gt; accounting entries &gt; account number
+And CommitANDvalidate should be Clicked
+And Accountingentries should be Checked</t>
+  </si>
+  <si>
+    <t>TC010_scenario10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -687,7 +791,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -710,40 +814,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="18" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="18" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -760,10 +876,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -798,7 +914,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -833,7 +949,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -927,21 +1043,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -958,7 +1074,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1010,41 +1126,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X1" workbookViewId="0" zoomScale="98" zoomScaleNormal="98">
+      <selection activeCell="AC2" sqref="AC2:AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" style="7" customWidth="1" collapsed="1"/>
-    <col min="5" max="8" width="15.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.42578125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="15" width="24.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="34" style="7" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="22" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="25" width="24.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="27.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.85546875" style="7" collapsed="1"/>
-    <col min="28" max="29" width="24.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="30" max="16384" width="24.85546875" style="7" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="7" width="12.140625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="7" width="16.28515625" collapsed="true"/>
+    <col min="5" max="8" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="7" width="14.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="7" width="20.5703125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" style="7" width="24.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="34.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="7" width="22.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="7" width="22.0" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" style="7" width="24.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="7" width="27.28515625" collapsed="true"/>
+    <col min="26" max="26" style="7" width="24.85546875" collapsed="true"/>
+    <col min="27" max="28" customWidth="true" style="7" width="24.85546875" collapsed="true"/>
+    <col min="29" max="16384" style="7" width="24.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+    <row ht="25.5" r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1067,76 +1182,73 @@
         <v>142</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>120</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>126</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="Q1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD1" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>148</v>
@@ -1158,71 +1270,68 @@
       <c r="G2" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2"/>
+      <c r="Q2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2"/>
-      <c r="R2" s="3" t="s">
-        <v>4</v>
+      <c r="R2" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="V2" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="W2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA2" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row ht="51" r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1230,7 +1339,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>148</v>
@@ -1244,71 +1353,72 @@
       <c r="G3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H3"/>
+      <c r="H3" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="I3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J3"/>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K3" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3"/>
+      <c r="M3"/>
+      <c r="N3" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O3" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="R3" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V3" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="W3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA3" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row ht="25.5" r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1316,7 +1426,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>148</v>
@@ -1330,67 +1440,64 @@
       <c r="G4" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>4</v>
+      <c r="H4" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>157</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4"/>
+      <c r="M4"/>
+      <c r="N4" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O4" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="R4" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="V4" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="W4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
       <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row ht="25.5" r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1398,7 +1505,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>148</v>
@@ -1416,59 +1523,58 @@
       <c r="I5" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J5"/>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K5" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5"/>
+      <c r="M5"/>
+      <c r="N5" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O5" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="R5" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V5" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="W5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
       <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row ht="51" r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1476,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>148</v>
@@ -1490,73 +1596,75 @@
       <c r="G6" s="7" t="s">
         <v>149</v>
       </c>
+      <c r="H6"/>
       <c r="I6" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K6" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M6"/>
       <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q6"/>
+      <c r="P6"/>
+      <c r="Q6" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="R6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U6" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA6" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row ht="51" r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" t="s">
+        <v>171</v>
+      </c>
       <c r="D7" s="10" t="s">
         <v>148</v>
       </c>
@@ -1573,72 +1681,75 @@
       <c r="I7" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J7"/>
+      <c r="J7" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K7" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7"/>
+      <c r="M7"/>
+      <c r="N7" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O7" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="T7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U7" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z7" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA7" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD7"/>
-    </row>
-    <row r="8" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row ht="25.5" r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8"/>
+      <c r="C8" t="s">
+        <v>173</v>
+      </c>
       <c r="D8" s="10" t="s">
         <v>148</v>
       </c>
@@ -1651,67 +1762,71 @@
       <c r="G8" s="7" t="s">
         <v>153</v>
       </c>
+      <c r="H8"/>
       <c r="I8" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K8" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8"/>
+      <c r="M8"/>
+      <c r="N8" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O8" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T8" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U8" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y8"/>
       <c r="Z8"/>
       <c r="AA8"/>
       <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-    </row>
-    <row r="9" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row ht="25.5" r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9"/>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
       <c r="D9" s="10" t="s">
         <v>148</v>
       </c>
@@ -1728,64 +1843,67 @@
       <c r="I9" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J9"/>
+      <c r="J9" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K9" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9"/>
+      <c r="M9"/>
+      <c r="N9" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O9" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U9" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y9"/>
       <c r="Z9"/>
       <c r="AA9"/>
       <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-    </row>
-    <row r="10" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row ht="51" r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10"/>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
       <c r="D10" s="10" t="s">
         <v>148</v>
       </c>
@@ -1802,68 +1920,71 @@
       <c r="I10" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J10"/>
+      <c r="J10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K10" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M10"/>
       <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q10"/>
-      <c r="R10" s="3" t="s">
+      <c r="P10"/>
+      <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="R10" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="V10" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="W10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z10" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA10" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD10"/>
-    </row>
-    <row r="11" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row ht="51" r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C11"/>
+      <c r="C11" t="s">
+        <v>179</v>
+      </c>
       <c r="D11" s="10" t="s">
         <v>148</v>
       </c>
@@ -1880,65 +2001,66 @@
       <c r="I11" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J11"/>
+      <c r="J11" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K11" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11"/>
+      <c r="M11"/>
+      <c r="N11" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O11" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="R11" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="U11" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V11" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="W11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z11" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA11" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD11"/>
-    </row>
-    <row r="12" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row ht="25.5" r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -1962,57 +2084,56 @@
       <c r="I12" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J12"/>
+      <c r="J12" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K12" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12"/>
+      <c r="M12"/>
+      <c r="N12" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O12" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="R12" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="U12" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="V12" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="W12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y12"/>
       <c r="Z12"/>
       <c r="AA12"/>
       <c r="AB12"/>
       <c r="AC12"/>
-      <c r="AD12"/>
-    </row>
-    <row r="13" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row ht="25.5" r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -2036,57 +2157,58 @@
       <c r="I13" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J13"/>
+      <c r="J13" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K13" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13"/>
+      <c r="M13"/>
+      <c r="N13" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O13" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="R13" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="U13" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V13" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="W13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y13"/>
       <c r="Z13"/>
       <c r="AA13"/>
       <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-    </row>
-    <row r="14" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -2110,61 +2232,62 @@
       <c r="I14" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J14"/>
+      <c r="J14" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K14" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M14"/>
       <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q14"/>
+      <c r="P14"/>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="R14" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA14" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD14"/>
-    </row>
-    <row r="15" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2188,65 +2311,66 @@
       <c r="I15" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J15"/>
+      <c r="J15" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K15" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15"/>
+      <c r="M15"/>
+      <c r="N15" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O15" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T15" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U15" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z15" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA15" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD15"/>
-    </row>
-    <row r="16" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2270,57 +2394,58 @@
       <c r="I16" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J16"/>
+      <c r="J16" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K16" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16"/>
+      <c r="M16"/>
+      <c r="N16" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O16" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S16" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T16" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U16" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y16"/>
       <c r="Z16"/>
       <c r="AA16"/>
       <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-    </row>
-    <row r="17" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
@@ -2344,57 +2469,58 @@
       <c r="I17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J17"/>
+      <c r="J17" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K17" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17"/>
+      <c r="M17"/>
+      <c r="N17" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O17" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T17" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U17" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y17"/>
       <c r="Z17"/>
       <c r="AA17"/>
       <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
-    </row>
-    <row r="18" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
@@ -2418,61 +2544,62 @@
       <c r="I18" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J18"/>
+      <c r="J18" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K18" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M18"/>
       <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q18"/>
-      <c r="R18" s="3" t="s">
+      <c r="P18"/>
+      <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="R18" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V18" s="4" t="s">
+      <c r="U18" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="V18" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="W18" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z18" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA18" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD18"/>
-    </row>
-    <row r="19" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -2496,65 +2623,66 @@
       <c r="I19" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J19"/>
+      <c r="J19" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K19" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19"/>
+      <c r="M19"/>
+      <c r="N19" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O19" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="R19" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V19" s="4" t="s">
+      <c r="U19" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V19" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="W19" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z19" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA19" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD19"/>
-    </row>
-    <row r="20" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>53</v>
       </c>
@@ -2578,57 +2706,58 @@
       <c r="I20" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J20"/>
+      <c r="J20" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K20" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20"/>
+      <c r="M20"/>
+      <c r="N20" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O20" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R20" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="R20" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V20" s="4" t="s">
+      <c r="U20" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="V20" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="W20" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y20"/>
       <c r="Z20"/>
       <c r="AA20"/>
       <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-    </row>
-    <row r="21" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
@@ -2652,57 +2781,58 @@
       <c r="I21" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J21"/>
+      <c r="J21" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K21" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N21"/>
+      <c r="M21"/>
+      <c r="N21" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O21" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="R21" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V21" s="4" t="s">
+      <c r="U21" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V21" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="W21" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y21"/>
       <c r="Z21"/>
       <c r="AA21"/>
       <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-    </row>
-    <row r="22" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
@@ -2726,61 +2856,62 @@
       <c r="I22" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J22"/>
+      <c r="J22" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K22" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M22"/>
       <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q22"/>
+      <c r="P22"/>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="R22" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z22" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA22" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD22"/>
-    </row>
-    <row r="23" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
@@ -2804,65 +2935,66 @@
       <c r="I23" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J23"/>
+      <c r="J23" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K23" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23"/>
+      <c r="M23"/>
+      <c r="N23" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O23" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="T23" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U23" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z23" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA23" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD23"/>
-    </row>
-    <row r="24" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>57</v>
       </c>
@@ -2886,57 +3018,58 @@
       <c r="I24" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J24"/>
+      <c r="J24" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K24" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24"/>
+      <c r="M24"/>
+      <c r="N24" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O24" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S24" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T24" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U24" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y24"/>
       <c r="Z24"/>
       <c r="AA24"/>
       <c r="AB24"/>
-      <c r="AC24"/>
-      <c r="AD24"/>
-    </row>
-    <row r="25" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
@@ -2960,57 +3093,58 @@
       <c r="I25" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J25"/>
+      <c r="J25" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K25" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25"/>
+      <c r="M25"/>
+      <c r="N25" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O25" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T25" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U25" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y25"/>
       <c r="Z25"/>
       <c r="AA25"/>
       <c r="AB25"/>
-      <c r="AC25"/>
-      <c r="AD25"/>
-    </row>
-    <row r="26" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
@@ -3034,61 +3168,62 @@
       <c r="I26" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J26"/>
+      <c r="J26" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K26" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M26"/>
       <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q26"/>
-      <c r="R26" s="3" t="s">
+      <c r="P26"/>
+      <c r="Q26" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="R26" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V26" s="4" t="s">
+      <c r="U26" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="V26" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="W26" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z26" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA26" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD26"/>
-    </row>
-    <row r="27" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>60</v>
       </c>
@@ -3112,65 +3247,66 @@
       <c r="I27" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J27"/>
+      <c r="J27" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K27" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N27"/>
+      <c r="M27"/>
+      <c r="N27" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O27" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R27" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="R27" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S27" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V27" s="4" t="s">
+      <c r="U27" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V27" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="W27" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z27" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA27" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD27"/>
-    </row>
-    <row r="28" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>61</v>
       </c>
@@ -3194,57 +3330,58 @@
       <c r="I28" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J28"/>
+      <c r="J28" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K28" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N28"/>
+      <c r="M28"/>
+      <c r="N28" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O28" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R28" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="R28" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S28" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V28" s="4" t="s">
+      <c r="U28" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="V28" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="W28" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y28" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y28"/>
       <c r="Z28"/>
       <c r="AA28"/>
       <c r="AB28"/>
-      <c r="AC28"/>
-      <c r="AD28"/>
-    </row>
-    <row r="29" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>62</v>
       </c>
@@ -3268,57 +3405,58 @@
       <c r="I29" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J29"/>
+      <c r="J29" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K29" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N29"/>
+      <c r="M29"/>
+      <c r="N29" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O29" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R29" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="R29" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V29" s="4" t="s">
+      <c r="U29" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="W29" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y29"/>
       <c r="Z29"/>
       <c r="AA29"/>
       <c r="AB29"/>
-      <c r="AC29"/>
-      <c r="AD29"/>
-    </row>
-    <row r="30" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
@@ -3342,61 +3480,62 @@
       <c r="I30" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J30"/>
+      <c r="J30" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K30" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M30"/>
       <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q30"/>
+      <c r="P30"/>
+      <c r="Q30" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="R30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T30" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U30" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z30" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA30" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD30"/>
-    </row>
-    <row r="31" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
@@ -3420,65 +3559,66 @@
       <c r="I31" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J31"/>
+      <c r="J31" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K31" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N31"/>
+      <c r="M31"/>
+      <c r="N31" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O31" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S31" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="T31" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U31" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z31" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA31" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD31"/>
-    </row>
-    <row r="32" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
@@ -3502,57 +3642,58 @@
       <c r="I32" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J32"/>
+      <c r="J32" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K32" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N32"/>
+      <c r="M32"/>
+      <c r="N32" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O32" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S32" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T32" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U32" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y32"/>
       <c r="Z32"/>
       <c r="AA32"/>
       <c r="AB32"/>
-      <c r="AC32"/>
-      <c r="AD32"/>
-    </row>
-    <row r="33" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>66</v>
       </c>
@@ -3576,57 +3717,58 @@
       <c r="I33" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J33"/>
+      <c r="J33" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K33" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N33"/>
+      <c r="M33"/>
+      <c r="N33" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O33" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S33" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T33" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U33" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y33" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y33"/>
       <c r="Z33"/>
       <c r="AA33"/>
       <c r="AB33"/>
-      <c r="AC33"/>
-      <c r="AD33"/>
-    </row>
-    <row r="34" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>67</v>
       </c>
@@ -3650,61 +3792,62 @@
       <c r="I34" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J34"/>
+      <c r="J34" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K34" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M34"/>
       <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q34"/>
-      <c r="R34" s="3" t="s">
+      <c r="P34"/>
+      <c r="Q34" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="R34" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S34" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U34" s="3" t="s">
+      <c r="T34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V34" s="4" t="s">
+      <c r="U34" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="V34" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="W34" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z34" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA34" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD34"/>
-    </row>
-    <row r="35" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
@@ -3728,65 +3871,66 @@
       <c r="I35" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J35"/>
+      <c r="J35" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K35" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N35"/>
+      <c r="M35"/>
+      <c r="N35" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O35" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R35" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="R35" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S35" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T35" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U35" s="3" t="s">
+      <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V35" s="4" t="s">
+      <c r="U35" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V35" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="W35" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z35" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA35" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC35" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD35"/>
-    </row>
-    <row r="36" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>69</v>
       </c>
@@ -3810,57 +3954,58 @@
       <c r="I36" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J36"/>
+      <c r="J36" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K36" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N36"/>
+      <c r="M36"/>
+      <c r="N36" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O36" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R36" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="R36" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S36" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T36" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U36" s="3" t="s">
+      <c r="T36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V36" s="4" t="s">
+      <c r="U36" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="V36" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="W36" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y36" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y36"/>
       <c r="Z36"/>
       <c r="AA36"/>
       <c r="AB36"/>
-      <c r="AC36"/>
-      <c r="AD36"/>
-    </row>
-    <row r="37" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>70</v>
       </c>
@@ -3884,57 +4029,58 @@
       <c r="I37" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J37"/>
+      <c r="J37" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K37" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N37"/>
+      <c r="M37"/>
+      <c r="N37" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O37" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R37" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="R37" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S37" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U37" s="3" t="s">
+      <c r="T37" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="4" t="s">
+      <c r="U37" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V37" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="W37" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y37" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y37"/>
       <c r="Z37"/>
       <c r="AA37"/>
       <c r="AB37"/>
-      <c r="AC37"/>
-      <c r="AD37"/>
-    </row>
-    <row r="38" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>71</v>
       </c>
@@ -3958,61 +4104,62 @@
       <c r="I38" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J38"/>
+      <c r="J38" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K38" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M38" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M38"/>
       <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38" s="3" t="s">
+      <c r="O38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q38"/>
+      <c r="P38"/>
+      <c r="Q38" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="R38" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z38" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA38" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD38"/>
-    </row>
-    <row r="39" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>72</v>
       </c>
@@ -4036,65 +4183,66 @@
       <c r="I39" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J39"/>
+      <c r="J39" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K39" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N39"/>
+      <c r="M39"/>
+      <c r="N39" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O39" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S39" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T39" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U39" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z39" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z39" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA39" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB39" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD39"/>
-    </row>
-    <row r="40" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>73</v>
       </c>
@@ -4118,57 +4266,58 @@
       <c r="I40" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J40"/>
+      <c r="J40" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K40" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N40"/>
+      <c r="M40"/>
+      <c r="N40" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O40" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S40" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T40" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U40" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y40" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y40"/>
       <c r="Z40"/>
       <c r="AA40"/>
       <c r="AB40"/>
-      <c r="AC40"/>
-      <c r="AD40"/>
-    </row>
-    <row r="41" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>74</v>
       </c>
@@ -4192,57 +4341,58 @@
       <c r="I41" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J41"/>
+      <c r="J41" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K41" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N41"/>
+      <c r="M41"/>
+      <c r="N41" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O41" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S41" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T41" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U41" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y41"/>
       <c r="Z41"/>
       <c r="AA41"/>
       <c r="AB41"/>
-      <c r="AC41"/>
-      <c r="AD41"/>
-    </row>
-    <row r="42" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>75</v>
       </c>
@@ -4266,61 +4416,62 @@
       <c r="I42" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J42"/>
+      <c r="J42" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K42" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M42"/>
       <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q42"/>
-      <c r="R42" s="3" t="s">
+      <c r="P42"/>
+      <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="R42" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S42" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V42" s="4" t="s">
+      <c r="U42" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="V42" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="W42" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z42" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z42" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA42" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD42"/>
-    </row>
-    <row r="43" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>76</v>
       </c>
@@ -4344,65 +4495,66 @@
       <c r="I43" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J43"/>
+      <c r="J43" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K43" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N43"/>
+      <c r="M43"/>
+      <c r="N43" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O43" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R43" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="R43" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S43" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="U43" s="3" t="s">
+      <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V43" s="4" t="s">
+      <c r="U43" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V43" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="W43" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z43" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z43" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA43" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD43"/>
-    </row>
-    <row r="44" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>77</v>
       </c>
@@ -4426,57 +4578,58 @@
       <c r="I44" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J44"/>
+      <c r="J44" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K44" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N44"/>
+      <c r="M44"/>
+      <c r="N44" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O44" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R44" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="R44" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S44" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U44" s="3" t="s">
+      <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V44" s="4" t="s">
+      <c r="U44" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="V44" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="W44" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y44" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y44"/>
       <c r="Z44"/>
       <c r="AA44"/>
       <c r="AB44"/>
-      <c r="AC44"/>
-      <c r="AD44"/>
-    </row>
-    <row r="45" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>78</v>
       </c>
@@ -4500,57 +4653,58 @@
       <c r="I45" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J45"/>
+      <c r="J45" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K45" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N45"/>
+      <c r="M45"/>
+      <c r="N45" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O45" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R45" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="R45" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S45" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T45" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V45" s="4" t="s">
+      <c r="U45" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V45" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="W45" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y45"/>
       <c r="Z45"/>
       <c r="AA45"/>
       <c r="AB45"/>
-      <c r="AC45"/>
-      <c r="AD45"/>
-    </row>
-    <row r="46" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>79</v>
       </c>
@@ -4574,61 +4728,62 @@
       <c r="I46" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J46"/>
+      <c r="J46" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K46" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M46"/>
       <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46" s="3" t="s">
+      <c r="O46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q46"/>
+      <c r="P46"/>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="R46" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y46" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z46" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z46" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA46" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB46" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC46" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD46"/>
-    </row>
-    <row r="47" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>80</v>
       </c>
@@ -4652,65 +4807,66 @@
       <c r="I47" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J47"/>
+      <c r="J47" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K47" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N47"/>
+      <c r="M47"/>
+      <c r="N47" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O47" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S47" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="T47" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U47" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z47" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z47" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA47" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB47" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC47" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD47"/>
-    </row>
-    <row r="48" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>81</v>
       </c>
@@ -4734,57 +4890,58 @@
       <c r="I48" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J48"/>
+      <c r="J48" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K48" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N48"/>
+      <c r="M48"/>
+      <c r="N48" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O48" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S48" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T48" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U48" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y48"/>
       <c r="Z48"/>
       <c r="AA48"/>
       <c r="AB48"/>
-      <c r="AC48"/>
-      <c r="AD48"/>
-    </row>
-    <row r="49" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>82</v>
       </c>
@@ -4808,57 +4965,58 @@
       <c r="I49" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J49"/>
+      <c r="J49" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K49" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N49"/>
+      <c r="M49"/>
+      <c r="N49" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O49" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S49" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T49" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U49" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y49" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y49"/>
       <c r="Z49"/>
       <c r="AA49"/>
       <c r="AB49"/>
-      <c r="AC49"/>
-      <c r="AD49"/>
-    </row>
-    <row r="50" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>83</v>
       </c>
@@ -4882,61 +5040,62 @@
       <c r="I50" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J50"/>
+      <c r="J50" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K50" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M50" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M50"/>
       <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50" s="3" t="s">
+      <c r="O50" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q50"/>
-      <c r="R50" s="3" t="s">
+      <c r="P50"/>
+      <c r="Q50" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="R50" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S50" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T50" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="U50" s="3" t="s">
+      <c r="T50" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V50" s="4" t="s">
+      <c r="U50" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="V50" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="W50" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y50" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z50" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z50" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA50" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB50" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC50" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD50"/>
-    </row>
-    <row r="51" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>84</v>
       </c>
@@ -4960,65 +5119,66 @@
       <c r="I51" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J51"/>
+      <c r="J51" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K51" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N51"/>
+      <c r="M51"/>
+      <c r="N51" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O51" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R51" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="R51" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S51" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U51" s="3" t="s">
+      <c r="T51" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V51" s="4" t="s">
+      <c r="U51" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V51" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="W51" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z51" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y51" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z51" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA51" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC51" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD51"/>
-    </row>
-    <row r="52" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>85</v>
       </c>
@@ -5042,57 +5202,58 @@
       <c r="I52" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J52"/>
+      <c r="J52" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K52" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N52"/>
+      <c r="M52"/>
+      <c r="N52" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O52" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R52" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="R52" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S52" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U52" s="3" t="s">
+      <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V52" s="4" t="s">
+      <c r="U52" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="V52" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="W52" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y52"/>
       <c r="Z52"/>
       <c r="AA52"/>
       <c r="AB52"/>
-      <c r="AC52"/>
-      <c r="AD52"/>
-    </row>
-    <row r="53" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>86</v>
       </c>
@@ -5116,57 +5277,58 @@
       <c r="I53" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J53"/>
+      <c r="J53" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K53" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N53"/>
+      <c r="M53"/>
+      <c r="N53" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O53" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R53" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="R53" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S53" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U53" s="3" t="s">
+      <c r="T53" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V53" s="4" t="s">
+      <c r="U53" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V53" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="W53" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y53" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y53"/>
       <c r="Z53"/>
       <c r="AA53"/>
       <c r="AB53"/>
-      <c r="AC53"/>
-      <c r="AD53"/>
-    </row>
-    <row r="54" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>87</v>
       </c>
@@ -5190,61 +5352,62 @@
       <c r="I54" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J54"/>
+      <c r="J54" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K54" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M54"/>
       <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54" s="3" t="s">
+      <c r="O54" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q54"/>
+      <c r="P54"/>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S54" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T54" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U54" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y54" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z54" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z54" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA54" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB54" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC54" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD54"/>
-    </row>
-    <row r="55" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>88</v>
       </c>
@@ -5268,65 +5431,66 @@
       <c r="I55" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J55"/>
+      <c r="J55" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K55" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M55" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N55"/>
+      <c r="M55"/>
+      <c r="N55" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O55" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S55" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S55" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="T55" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U55" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y55" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z55" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z55" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA55" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC55" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD55"/>
-    </row>
-    <row r="56" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>89</v>
       </c>
@@ -5350,57 +5514,58 @@
       <c r="I56" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J56"/>
+      <c r="J56" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K56" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M56" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N56"/>
+      <c r="M56"/>
+      <c r="N56" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O56" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S56" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T56" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U56" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y56" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y56"/>
       <c r="Z56"/>
       <c r="AA56"/>
       <c r="AB56"/>
-      <c r="AC56"/>
-      <c r="AD56"/>
-    </row>
-    <row r="57" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>90</v>
       </c>
@@ -5424,57 +5589,58 @@
       <c r="I57" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J57"/>
+      <c r="J57" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K57" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N57"/>
+      <c r="M57"/>
+      <c r="N57" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O57" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S57" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T57" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U57" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y57"/>
       <c r="Z57"/>
       <c r="AA57"/>
       <c r="AB57"/>
-      <c r="AC57"/>
-      <c r="AD57"/>
-    </row>
-    <row r="58" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC57" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>91</v>
       </c>
@@ -5498,61 +5664,62 @@
       <c r="I58" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J58"/>
+      <c r="J58" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K58" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M58"/>
       <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58" s="3" t="s">
+      <c r="O58" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q58"/>
-      <c r="R58" s="3" t="s">
+      <c r="P58"/>
+      <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="R58" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S58" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V58" s="4" t="s">
+      <c r="U58" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="V58" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="W58" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z58" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA58" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y58" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z58" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA58" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB58" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC58" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD58"/>
-    </row>
-    <row r="59" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>92</v>
       </c>
@@ -5576,65 +5743,66 @@
       <c r="I59" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J59"/>
+      <c r="J59" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K59" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N59"/>
+      <c r="M59"/>
+      <c r="N59" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O59" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R59" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="R59" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S59" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T59" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U59" s="3" t="s">
+      <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V59" s="4" t="s">
+      <c r="U59" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V59" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="W59" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y59" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z59" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA59" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y59" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z59" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA59" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB59" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC59" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD59"/>
-    </row>
-    <row r="60" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>93</v>
       </c>
@@ -5658,57 +5826,58 @@
       <c r="I60" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J60"/>
+      <c r="J60" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K60" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N60"/>
+      <c r="M60"/>
+      <c r="N60" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O60" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R60" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="R60" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S60" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T60" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U60" s="3" t="s">
+      <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V60" s="4" t="s">
+      <c r="U60" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="V60" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="W60" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y60" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y60"/>
       <c r="Z60"/>
       <c r="AA60"/>
       <c r="AB60"/>
-      <c r="AC60"/>
-      <c r="AD60"/>
-    </row>
-    <row r="61" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>94</v>
       </c>
@@ -5732,57 +5901,58 @@
       <c r="I61" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J61"/>
+      <c r="J61" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K61" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M61" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N61"/>
+      <c r="M61"/>
+      <c r="N61" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O61" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R61" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="R61" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S61" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U61" s="3" t="s">
+      <c r="T61" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V61" s="4" t="s">
+      <c r="U61" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V61" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="W61" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y61" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y61"/>
       <c r="Z61"/>
       <c r="AA61"/>
       <c r="AB61"/>
-      <c r="AC61"/>
-      <c r="AD61"/>
-    </row>
-    <row r="62" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>95</v>
       </c>
@@ -5806,61 +5976,62 @@
       <c r="I62" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J62"/>
+      <c r="J62" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K62" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M62"/>
       <c r="N62"/>
-      <c r="O62"/>
-      <c r="P62" s="3" t="s">
+      <c r="O62" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q62"/>
+      <c r="P62"/>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="R62" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z62" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA62" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y62" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z62" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA62" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB62" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC62" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD62"/>
-    </row>
-    <row r="63" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>96</v>
       </c>
@@ -5884,65 +6055,66 @@
       <c r="I63" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J63"/>
+      <c r="J63" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K63" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M63" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N63"/>
+      <c r="M63"/>
+      <c r="N63" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O63" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S63" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T63" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U63" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y63" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z63" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y63" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z63" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA63" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB63" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC63" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD63"/>
-    </row>
-    <row r="64" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>97</v>
       </c>
@@ -5966,57 +6138,58 @@
       <c r="I64" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J64"/>
+      <c r="J64" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K64" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M64" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N64"/>
+      <c r="M64"/>
+      <c r="N64" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O64" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S64" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T64" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S64" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T64" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U64" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y64" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y64"/>
       <c r="Z64"/>
       <c r="AA64"/>
       <c r="AB64"/>
-      <c r="AC64"/>
-      <c r="AD64"/>
-    </row>
-    <row r="65" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>98</v>
       </c>
@@ -6040,57 +6213,58 @@
       <c r="I65" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J65"/>
+      <c r="J65" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K65" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M65" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N65"/>
+      <c r="M65"/>
+      <c r="N65" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O65" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S65" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S65" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T65" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U65" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y65" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y65"/>
       <c r="Z65"/>
       <c r="AA65"/>
       <c r="AB65"/>
-      <c r="AC65"/>
-      <c r="AD65"/>
-    </row>
-    <row r="66" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>99</v>
       </c>
@@ -6114,61 +6288,62 @@
       <c r="I66" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J66"/>
+      <c r="J66" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K66" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M66"/>
       <c r="N66"/>
-      <c r="O66"/>
-      <c r="P66" s="3" t="s">
+      <c r="O66" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q66"/>
-      <c r="R66" s="3" t="s">
+      <c r="P66"/>
+      <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="R66" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S66" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T66" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U66" s="3" t="s">
+      <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V66" s="4" t="s">
+      <c r="U66" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="V66" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="W66" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y66" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z66" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA66" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y66" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z66" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA66" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB66" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC66" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD66"/>
-    </row>
-    <row r="67" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC66" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>100</v>
       </c>
@@ -6192,65 +6367,66 @@
       <c r="I67" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J67"/>
+      <c r="J67" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K67" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M67" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N67"/>
+      <c r="M67"/>
+      <c r="N67" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O67" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R67" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="R67" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S67" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T67" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="U67" s="3" t="s">
+      <c r="T67" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V67" s="4" t="s">
+      <c r="U67" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V67" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="W67" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y67" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z67" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA67" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y67" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z67" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA67" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB67" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC67" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD67"/>
-    </row>
-    <row r="68" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>101</v>
       </c>
@@ -6274,57 +6450,58 @@
       <c r="I68" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J68"/>
+      <c r="J68" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K68" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M68" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N68"/>
+      <c r="M68"/>
+      <c r="N68" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O68" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R68" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="R68" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S68" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U68" s="3" t="s">
+      <c r="T68" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V68" s="4" t="s">
+      <c r="U68" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="V68" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="W68" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y68" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y68"/>
       <c r="Z68"/>
       <c r="AA68"/>
       <c r="AB68"/>
-      <c r="AC68"/>
-      <c r="AD68"/>
-    </row>
-    <row r="69" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>102</v>
       </c>
@@ -6348,57 +6525,58 @@
       <c r="I69" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J69"/>
+      <c r="J69" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K69" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M69" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N69"/>
+      <c r="M69"/>
+      <c r="N69" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O69" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R69" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="R69" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S69" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T69" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U69" s="3" t="s">
+      <c r="T69" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V69" s="4" t="s">
+      <c r="U69" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V69" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="W69" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y69" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y69"/>
       <c r="Z69"/>
       <c r="AA69"/>
       <c r="AB69"/>
-      <c r="AC69"/>
-      <c r="AD69"/>
-    </row>
-    <row r="70" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>103</v>
       </c>
@@ -6422,61 +6600,62 @@
       <c r="I70" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J70"/>
+      <c r="J70" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K70" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M70" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M70"/>
       <c r="N70"/>
-      <c r="O70"/>
-      <c r="P70" s="3" t="s">
+      <c r="O70" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q70"/>
+      <c r="P70"/>
+      <c r="Q70" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="R70" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="U70" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y70" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z70" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA70" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y70" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z70" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA70" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB70" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC70" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD70"/>
-    </row>
-    <row r="71" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC70" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>104</v>
       </c>
@@ -6500,65 +6679,66 @@
       <c r="I71" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J71"/>
+      <c r="J71" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K71" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M71" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N71"/>
+      <c r="M71"/>
+      <c r="N71" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O71" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S71" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S71" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="T71" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U71" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y71" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z71" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA71" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y71" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z71" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA71" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB71" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC71" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD71"/>
-    </row>
-    <row r="72" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>105</v>
       </c>
@@ -6582,57 +6762,58 @@
       <c r="I72" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J72"/>
+      <c r="J72" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K72" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N72"/>
+      <c r="M72"/>
+      <c r="N72" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O72" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S72" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T72" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U72" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y72" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y72"/>
       <c r="Z72"/>
       <c r="AA72"/>
       <c r="AB72"/>
-      <c r="AC72"/>
-      <c r="AD72"/>
-    </row>
-    <row r="73" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AC72" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="25.5" r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>106</v>
       </c>
@@ -6656,57 +6837,58 @@
       <c r="I73" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J73"/>
+      <c r="J73" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K73" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M73" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N73"/>
+      <c r="M73"/>
+      <c r="N73" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O73" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S73" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S73" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T73" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U73" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y73" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y73"/>
       <c r="Z73"/>
       <c r="AA73"/>
       <c r="AB73"/>
-      <c r="AC73"/>
-      <c r="AD73"/>
-    </row>
-    <row r="74" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC73" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>107</v>
       </c>
@@ -6730,61 +6912,62 @@
       <c r="I74" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J74"/>
+      <c r="J74" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K74" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M74" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M74"/>
       <c r="N74"/>
-      <c r="O74"/>
-      <c r="P74" s="3" t="s">
+      <c r="O74" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q74"/>
-      <c r="R74" s="3" t="s">
+      <c r="P74"/>
+      <c r="Q74" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S74" s="5" t="s">
+      <c r="R74" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="T74" s="4" t="s">
+      <c r="S74" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U74" s="3" t="s">
+      <c r="T74" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V74" s="4" t="s">
+      <c r="U74" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="V74" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="W74" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y74" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z74" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA74" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y74" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z74" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA74" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB74" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC74" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD74"/>
-    </row>
-    <row r="75" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>108</v>
       </c>
@@ -6808,61 +6991,62 @@
       <c r="I75" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J75"/>
+      <c r="J75" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K75" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M75" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M75"/>
       <c r="N75"/>
-      <c r="O75"/>
-      <c r="P75" s="3" t="s">
+      <c r="O75" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q75"/>
+      <c r="P75"/>
+      <c r="Q75" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="R75" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S75" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U75" s="3" t="s">
+      <c r="T75" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V75" s="4" t="s">
+      <c r="U75" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="V75" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="W75" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y75" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z75" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA75" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y75" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z75" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA75" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB75" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC75" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD75"/>
-    </row>
-    <row r="76" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC75" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>109</v>
       </c>
@@ -6886,61 +7070,62 @@
       <c r="I76" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J76"/>
+      <c r="J76" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K76" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M76"/>
       <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76" s="3" t="s">
+      <c r="O76" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q76"/>
-      <c r="R76" s="3" t="s">
+      <c r="P76"/>
+      <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S76" s="5" t="s">
+      <c r="R76" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="T76" s="4" t="s">
+      <c r="S76" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T76" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U76" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V76" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y76" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z76" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA76" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y76" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z76" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA76" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB76" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC76" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD76"/>
-    </row>
-    <row r="77" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC76" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>110</v>
       </c>
@@ -6964,61 +7149,62 @@
       <c r="I77" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J77"/>
+      <c r="J77" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K77" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L77" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M77" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M77"/>
       <c r="N77"/>
-      <c r="O77"/>
-      <c r="P77" s="3" t="s">
+      <c r="O77" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q77"/>
+      <c r="P77"/>
+      <c r="Q77" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="R77" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S77" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T77" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S77" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="T77" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U77" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y77" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z77" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA77" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y77" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z77" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA77" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB77" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC77" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD77"/>
-    </row>
-    <row r="78" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>111</v>
       </c>
@@ -7042,61 +7228,62 @@
       <c r="I78" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J78"/>
-      <c r="K78" s="5" t="s">
+      <c r="J78" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L78" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="K78" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M78"/>
       <c r="N78"/>
-      <c r="O78"/>
-      <c r="P78" s="3" t="s">
+      <c r="O78" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q78"/>
+      <c r="P78"/>
+      <c r="Q78" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="R78" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S78" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T78" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="U78" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="U78" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="V78" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y78" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z78" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA78" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y78" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z78" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA78" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB78" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC78" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD78"/>
-    </row>
-    <row r="79" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>112</v>
       </c>
@@ -7120,63 +7307,64 @@
       <c r="I79" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J79"/>
-      <c r="K79" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="J79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L79"/>
       <c r="M79"/>
-      <c r="N79"/>
+      <c r="N79" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O79" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q79" s="3" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="Q79" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="R79" s="4" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="S79" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="U79" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="U79" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="V79" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y79" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z79" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA79" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y79" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z79" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA79" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB79" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC79" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD79"/>
-    </row>
-    <row r="80" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC79" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>113</v>
       </c>
@@ -7200,9 +7388,11 @@
       <c r="I80" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J80"/>
-      <c r="K80" s="5" t="s">
-        <v>9</v>
+      <c r="J80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>32</v>
@@ -7210,53 +7400,52 @@
       <c r="M80" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N80" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O80"/>
-      <c r="P80" s="3" t="s">
+      <c r="N80"/>
+      <c r="O80" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q80"/>
+      <c r="P80"/>
+      <c r="Q80" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="R80" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S80" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="U80" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="U80" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="V80" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y80" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z80" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA80" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y80" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z80" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA80" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB80" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC80" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD80"/>
-    </row>
-    <row r="81" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>114</v>
       </c>
@@ -7280,59 +7469,60 @@
       <c r="I81" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J81"/>
-      <c r="K81" s="5" t="s">
+      <c r="J81" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="K81" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L81"/>
       <c r="M81"/>
       <c r="N81"/>
-      <c r="O81"/>
-      <c r="P81" s="3" t="s">
+      <c r="O81" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q81"/>
+      <c r="P81"/>
+      <c r="Q81" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="R81" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S81" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="U81" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="U81" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="V81" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="X81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y81" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z81" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA81" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y81" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z81" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA81" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB81" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC81" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD81"/>
-    </row>
-    <row r="82" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>115</v>
       </c>
@@ -7356,61 +7546,62 @@
       <c r="I82" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J82"/>
-      <c r="K82" s="5" t="s">
+      <c r="J82" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="K82" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="L82" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M82" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="M82"/>
       <c r="N82"/>
-      <c r="O82"/>
-      <c r="P82" s="3" t="s">
+      <c r="O82" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q82"/>
+      <c r="P82"/>
+      <c r="Q82" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="R82" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S82" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="U82" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="U82" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="V82" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X82" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y82" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z82" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA82" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y82" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z82" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA82" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB82" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC82" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD82"/>
-    </row>
-    <row r="83" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>116</v>
       </c>
@@ -7434,61 +7625,62 @@
       <c r="I83" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J83"/>
-      <c r="K83" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M83"/>
-      <c r="N83" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O83"/>
-      <c r="P83" s="3" t="s">
+      <c r="J83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L83"/>
+      <c r="M83" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N83"/>
+      <c r="O83" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q83"/>
+      <c r="P83"/>
+      <c r="Q83" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="R83" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S83" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T83" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="U83" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="V83" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="W83" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="X83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y83" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z83" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA83" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y83" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z83" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA83" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB83" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC83" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD83"/>
-    </row>
-    <row r="84" spans="1:30" ht="51" x14ac:dyDescent="0.25">
+      <c r="AC83" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row ht="51" r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>117</v>
       </c>
@@ -7512,60 +7704,61 @@
       <c r="I84" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J84"/>
-      <c r="K84" s="5" t="s">
+      <c r="J84" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L84" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="K84" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L84"/>
       <c r="M84"/>
       <c r="N84"/>
-      <c r="O84"/>
-      <c r="P84" s="3" t="s">
+      <c r="O84" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q84"/>
+      <c r="P84"/>
+      <c r="Q84" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="R84" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S84" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="U84" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="U84" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="V84" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="W84" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="X84" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y84" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z84" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA84" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y84" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z84" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="AA84" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="AB84" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC84" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD84"/>
+      <c r="AC84" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/src/DataSheet/ScenarioMatrix.xlsx
+++ b/src/DataSheet/ScenarioMatrix.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prakashp\Downloads\GherkinGenerator\src\DataSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prakashp\Downloads\GherkinGenerator-Final\src\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="7665" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
   </bookViews>
   <sheets>
-    <sheet name="Shares" r:id="rId1" sheetId="1"/>
+    <sheet name="Shares" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Shares!$A$1:$AB$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Shares!$A$1:$AB$84</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="180">
   <si>
     <t>TC_01</t>
   </si>
@@ -500,16 +500,16 @@
     <t>Sell a Bond</t>
   </si>
   <si>
-    <t xml:space="preserve">Valid User Name and Password </t>
-  </si>
-  <si>
     <t>Update_Feature</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Given Login is Valid User Name and Password 
+    <t>Valid User Name and Password</t>
+  </si>
+  <si>
+    <t>Given Login is Valid User Name and Password
 And AccountStatus is Active
 And PortfolioCreated is Yes
 And SufficientFunds is Yes
@@ -531,7 +531,7 @@
     <t>TC01_scenario1</t>
   </si>
   <si>
-    <t>Given Login is Valid User Name and Password 
+    <t>Given Login is Valid User Name and Password
 And AccountStatus is Active
 And PortfolioCreated is Yes
 And SufficientFunds is Yes
@@ -555,7 +555,7 @@
     <t>TC02_scenario2</t>
   </si>
   <si>
-    <t>Given Login is Valid User Name and Password 
+    <t>Given Login is Valid User Name and Password
 And AccountStatus is Active
 And PortfolioCreated is Yes
 And SufficientFunds is Yes
@@ -575,7 +575,7 @@
     <t>TC03_scenario3</t>
   </si>
   <si>
-    <t>Given Login is Valid User Name and Password 
+    <t>Given Login is Valid User Name and Password
 And AccountStatus is Active
 And PortfolioCreated is Yes
 And SufficientFunds is Yes
@@ -595,7 +595,7 @@
     <t>TC04_scenario4</t>
   </si>
   <si>
-    <t>Given Login is Valid User Name and Password 
+    <t>Given Login is Valid User Name and Password
 And AccountStatus is Active
 And PortfolioCreated is Yes
 And SufficientFunds is Yes
@@ -617,7 +617,7 @@
     <t>TC05_scenario5</t>
   </si>
   <si>
-    <t>Given Login is Valid User Name and Password 
+    <t>Given Login is Valid User Name and Password
 And AccountStatus is Active
 And PortfolioCreated is Yes
 And SufficientFunds is Yes
@@ -641,7 +641,7 @@
     <t>TC06_scenario6</t>
   </si>
   <si>
-    <t>Given Login is Valid User Name and Password 
+    <t>Given Login is Valid User Name and Password
 And AccountStatus is Active
 And PortfolioCreated is Yes
 And SufficientFunds is Yes
@@ -661,7 +661,7 @@
     <t>TC07_scenario7</t>
   </si>
   <si>
-    <t>Given Login is Valid User Name and Password 
+    <t>Given Login is Valid User Name and Password
 And AccountStatus is Active
 And PortfolioCreated is Yes
 And SufficientFunds is Yes
@@ -681,7 +681,7 @@
     <t>TC08_scenario8</t>
   </si>
   <si>
-    <t>Given Login is Valid User Name and Password 
+    <t>Given Login is Valid User Name and Password
 And AccountStatus is Active
 And PortfolioCreated is Yes
 And SufficientFunds is Yes
@@ -703,7 +703,7 @@
     <t>TC09_scenario9</t>
   </si>
   <si>
-    <t>Given Login is Valid User Name and Password 
+    <t>Given Login is Valid User Name and Password
 And AccountStatus is Active
 And PortfolioCreated is Yes
 And SufficientFunds is Yes
@@ -731,7 +731,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -791,7 +790,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -814,52 +813,41 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="18" xfId="0">
+    <xf numFmtId="18" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="18" xfId="0">
+    <xf numFmtId="18" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -876,10 +864,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -914,7 +902,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -949,7 +937,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1043,21 +1031,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1074,7 +1062,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1126,40 +1114,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X1" workbookViewId="0" zoomScale="98" zoomScaleNormal="98">
-      <selection activeCell="AC2" sqref="AC2:AC11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="7" width="12.140625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="7" width="16.28515625" collapsed="true"/>
-    <col min="5" max="8" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="7" width="14.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="7" width="20.5703125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" style="7" width="24.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="7" width="34.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="7" width="22.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="7" width="22.0" collapsed="true"/>
-    <col min="18" max="24" customWidth="true" style="7" width="24.85546875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="7" width="27.28515625" collapsed="true"/>
-    <col min="26" max="26" style="7" width="24.85546875" collapsed="true"/>
-    <col min="27" max="28" customWidth="true" style="7" width="24.85546875" collapsed="true"/>
-    <col min="29" max="16384" style="7" width="24.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="15.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" style="7" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="15.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34" style="7" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="22.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="24" width="24.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="27.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.85546875" style="7" collapsed="1"/>
+    <col min="27" max="28" width="24.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="24.85546875" style="7" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="25.5" r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1170,19 +1158,19 @@
         <v>145</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>120</v>
@@ -1248,33 +1236,31 @@
         <v>119</v>
       </c>
     </row>
-    <row ht="51" r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D2" s="11"/>
       <c r="E2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>9</v>
@@ -1331,33 +1317,30 @@
         <v>160</v>
       </c>
     </row>
-    <row ht="51" r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="E3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>9</v>
@@ -1418,33 +1401,31 @@
         <v>162</v>
       </c>
     </row>
-    <row ht="25.5" r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D4" s="11"/>
       <c r="E4" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>9</v>
@@ -1497,31 +1478,30 @@
         <v>164</v>
       </c>
     </row>
-    <row ht="25.5" r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="E5" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H5"/>
       <c r="I5" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>9</v>
@@ -1574,31 +1554,30 @@
         <v>166</v>
       </c>
     </row>
-    <row ht="51" r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="E6" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H6"/>
       <c r="I6" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>9</v>
@@ -1655,31 +1634,31 @@
         <v>168</v>
       </c>
     </row>
-    <row ht="51" r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D7" s="11"/>
       <c r="E7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H7"/>
       <c r="I7" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>9</v>
@@ -1740,31 +1719,30 @@
         <v>170</v>
       </c>
     </row>
-    <row ht="25.5" r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="E8" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H8"/>
       <c r="I8" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>9</v>
@@ -1817,31 +1795,30 @@
         <v>172</v>
       </c>
     </row>
-    <row ht="25.5" r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="E9" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H9"/>
       <c r="I9" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>9</v>
@@ -1894,31 +1871,30 @@
         <v>174</v>
       </c>
     </row>
-    <row ht="51" r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="E10" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H10"/>
       <c r="I10" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>9</v>
@@ -1975,31 +1951,30 @@
         <v>176</v>
       </c>
     </row>
-    <row ht="51" r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="E11" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H11"/>
       <c r="I11" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>9</v>
@@ -2060,7 +2035,7 @@
         <v>178</v>
       </c>
     </row>
-    <row ht="25.5" r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -2068,22 +2043,20 @@
         <v>45</v>
       </c>
       <c r="C12"/>
-      <c r="D12" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D12"/>
       <c r="E12" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H12"/>
-      <c r="I12" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I12"/>
       <c r="J12" s="3" t="s">
         <v>9</v>
       </c>
@@ -2133,7 +2106,7 @@
       <c r="AB12"/>
       <c r="AC12"/>
     </row>
-    <row ht="25.5" r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -2141,22 +2114,20 @@
         <v>46</v>
       </c>
       <c r="C13"/>
-      <c r="D13" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D13"/>
       <c r="E13" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H13"/>
-      <c r="I13" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I13"/>
       <c r="J13" s="3" t="s">
         <v>9</v>
       </c>
@@ -2205,10 +2176,10 @@
       <c r="AA13"/>
       <c r="AB13"/>
       <c r="AC13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="14" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -2216,22 +2187,20 @@
         <v>47</v>
       </c>
       <c r="C14"/>
-      <c r="D14" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D14"/>
       <c r="E14" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H14"/>
-      <c r="I14" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I14"/>
       <c r="J14" s="3" t="s">
         <v>9</v>
       </c>
@@ -2284,10 +2253,10 @@
         <v>44</v>
       </c>
       <c r="AC14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="15" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2295,22 +2264,20 @@
         <v>48</v>
       </c>
       <c r="C15"/>
-      <c r="D15" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D15"/>
       <c r="E15" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H15"/>
-      <c r="I15" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I15"/>
       <c r="J15" s="3" t="s">
         <v>9</v>
       </c>
@@ -2367,10 +2334,10 @@
         <v>44</v>
       </c>
       <c r="AC15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="16" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2378,22 +2345,20 @@
         <v>49</v>
       </c>
       <c r="C16"/>
-      <c r="D16" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D16"/>
       <c r="E16" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H16"/>
-      <c r="I16" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I16"/>
       <c r="J16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2442,10 +2407,10 @@
       <c r="AA16"/>
       <c r="AB16"/>
       <c r="AC16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="17" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
@@ -2453,22 +2418,20 @@
         <v>50</v>
       </c>
       <c r="C17"/>
-      <c r="D17" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D17"/>
       <c r="E17" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H17"/>
-      <c r="I17" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I17"/>
       <c r="J17" s="3" t="s">
         <v>9</v>
       </c>
@@ -2517,10 +2480,10 @@
       <c r="AA17"/>
       <c r="AB17"/>
       <c r="AC17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="18" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
@@ -2528,22 +2491,20 @@
         <v>51</v>
       </c>
       <c r="C18"/>
-      <c r="D18" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D18"/>
       <c r="E18" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H18"/>
-      <c r="I18" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I18"/>
       <c r="J18" s="3" t="s">
         <v>9</v>
       </c>
@@ -2596,10 +2557,10 @@
         <v>44</v>
       </c>
       <c r="AC18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="19" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -2607,22 +2568,20 @@
         <v>52</v>
       </c>
       <c r="C19"/>
-      <c r="D19" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D19"/>
       <c r="E19" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H19"/>
-      <c r="I19" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I19"/>
       <c r="J19" s="3" t="s">
         <v>9</v>
       </c>
@@ -2679,10 +2638,10 @@
         <v>44</v>
       </c>
       <c r="AC19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="20" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>53</v>
       </c>
@@ -2690,22 +2649,20 @@
         <v>53</v>
       </c>
       <c r="C20"/>
-      <c r="D20" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D20"/>
       <c r="E20" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H20"/>
-      <c r="I20" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I20"/>
       <c r="J20" s="3" t="s">
         <v>9</v>
       </c>
@@ -2754,10 +2711,10 @@
       <c r="AA20"/>
       <c r="AB20"/>
       <c r="AC20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="21" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
@@ -2765,22 +2722,20 @@
         <v>54</v>
       </c>
       <c r="C21"/>
-      <c r="D21" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D21"/>
       <c r="E21" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H21"/>
-      <c r="I21" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I21"/>
       <c r="J21" s="3" t="s">
         <v>9</v>
       </c>
@@ -2829,10 +2784,10 @@
       <c r="AA21"/>
       <c r="AB21"/>
       <c r="AC21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="22" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
@@ -2840,22 +2795,20 @@
         <v>55</v>
       </c>
       <c r="C22"/>
-      <c r="D22" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D22"/>
       <c r="E22" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H22"/>
-      <c r="I22" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I22"/>
       <c r="J22" s="3" t="s">
         <v>9</v>
       </c>
@@ -2908,10 +2861,10 @@
         <v>44</v>
       </c>
       <c r="AC22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="23" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
@@ -2919,22 +2872,20 @@
         <v>56</v>
       </c>
       <c r="C23"/>
-      <c r="D23" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D23"/>
       <c r="E23" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H23"/>
-      <c r="I23" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I23"/>
       <c r="J23" s="3" t="s">
         <v>9</v>
       </c>
@@ -2991,10 +2942,10 @@
         <v>44</v>
       </c>
       <c r="AC23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="24" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>57</v>
       </c>
@@ -3002,22 +2953,20 @@
         <v>57</v>
       </c>
       <c r="C24"/>
-      <c r="D24" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D24"/>
       <c r="E24" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="G24" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H24"/>
-      <c r="I24" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I24"/>
       <c r="J24" s="3" t="s">
         <v>9</v>
       </c>
@@ -3066,10 +3015,10 @@
       <c r="AA24"/>
       <c r="AB24"/>
       <c r="AC24" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="25" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
@@ -3077,22 +3026,20 @@
         <v>58</v>
       </c>
       <c r="C25"/>
-      <c r="D25" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D25"/>
       <c r="E25" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="G25" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H25"/>
-      <c r="I25" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I25"/>
       <c r="J25" s="3" t="s">
         <v>9</v>
       </c>
@@ -3141,10 +3088,10 @@
       <c r="AA25"/>
       <c r="AB25"/>
       <c r="AC25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="26" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
@@ -3152,22 +3099,20 @@
         <v>59</v>
       </c>
       <c r="C26"/>
-      <c r="D26" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D26"/>
       <c r="E26" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H26"/>
-      <c r="I26" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I26"/>
       <c r="J26" s="3" t="s">
         <v>9</v>
       </c>
@@ -3220,10 +3165,10 @@
         <v>44</v>
       </c>
       <c r="AC26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="27" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>60</v>
       </c>
@@ -3231,22 +3176,20 @@
         <v>60</v>
       </c>
       <c r="C27"/>
-      <c r="D27" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D27"/>
       <c r="E27" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="G27" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H27"/>
-      <c r="I27" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I27"/>
       <c r="J27" s="3" t="s">
         <v>9</v>
       </c>
@@ -3303,10 +3246,10 @@
         <v>44</v>
       </c>
       <c r="AC27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="28" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>61</v>
       </c>
@@ -3314,22 +3257,20 @@
         <v>61</v>
       </c>
       <c r="C28"/>
-      <c r="D28" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D28"/>
       <c r="E28" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="G28" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H28"/>
-      <c r="I28" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I28"/>
       <c r="J28" s="3" t="s">
         <v>9</v>
       </c>
@@ -3378,10 +3319,10 @@
       <c r="AA28"/>
       <c r="AB28"/>
       <c r="AC28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="29" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>62</v>
       </c>
@@ -3389,22 +3330,20 @@
         <v>62</v>
       </c>
       <c r="C29"/>
-      <c r="D29" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D29"/>
       <c r="E29" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="G29" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H29"/>
-      <c r="I29" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I29"/>
       <c r="J29" s="3" t="s">
         <v>9</v>
       </c>
@@ -3453,10 +3392,10 @@
       <c r="AA29"/>
       <c r="AB29"/>
       <c r="AC29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="30" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
@@ -3464,22 +3403,20 @@
         <v>63</v>
       </c>
       <c r="C30"/>
-      <c r="D30" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D30"/>
       <c r="E30" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="G30" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H30"/>
-      <c r="I30" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I30"/>
       <c r="J30" s="3" t="s">
         <v>9</v>
       </c>
@@ -3532,10 +3469,10 @@
         <v>44</v>
       </c>
       <c r="AC30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="31" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
@@ -3543,22 +3480,20 @@
         <v>64</v>
       </c>
       <c r="C31"/>
-      <c r="D31" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D31"/>
       <c r="E31" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="G31" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H31"/>
-      <c r="I31" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I31"/>
       <c r="J31" s="3" t="s">
         <v>9</v>
       </c>
@@ -3615,10 +3550,10 @@
         <v>44</v>
       </c>
       <c r="AC31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="32" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
@@ -3626,22 +3561,20 @@
         <v>65</v>
       </c>
       <c r="C32"/>
-      <c r="D32" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D32"/>
       <c r="E32" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="G32" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H32"/>
-      <c r="I32" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I32"/>
       <c r="J32" s="3" t="s">
         <v>9</v>
       </c>
@@ -3690,10 +3623,10 @@
       <c r="AA32"/>
       <c r="AB32"/>
       <c r="AC32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="33" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>66</v>
       </c>
@@ -3701,22 +3634,20 @@
         <v>66</v>
       </c>
       <c r="C33"/>
-      <c r="D33" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D33"/>
       <c r="E33" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H33"/>
-      <c r="I33" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I33"/>
       <c r="J33" s="3" t="s">
         <v>9</v>
       </c>
@@ -3765,10 +3696,10 @@
       <c r="AA33"/>
       <c r="AB33"/>
       <c r="AC33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="34" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>67</v>
       </c>
@@ -3776,22 +3707,20 @@
         <v>67</v>
       </c>
       <c r="C34"/>
-      <c r="D34" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D34"/>
       <c r="E34" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="G34" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H34"/>
-      <c r="I34" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I34"/>
       <c r="J34" s="3" t="s">
         <v>9</v>
       </c>
@@ -3844,10 +3773,10 @@
         <v>44</v>
       </c>
       <c r="AC34" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="35" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
@@ -3855,22 +3784,20 @@
         <v>68</v>
       </c>
       <c r="C35"/>
-      <c r="D35" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D35"/>
       <c r="E35" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="G35" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H35"/>
-      <c r="I35" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I35"/>
       <c r="J35" s="3" t="s">
         <v>9</v>
       </c>
@@ -3927,10 +3854,10 @@
         <v>44</v>
       </c>
       <c r="AC35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="36" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>69</v>
       </c>
@@ -3938,22 +3865,20 @@
         <v>69</v>
       </c>
       <c r="C36"/>
-      <c r="D36" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D36"/>
       <c r="E36" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H36"/>
-      <c r="I36" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I36"/>
       <c r="J36" s="3" t="s">
         <v>9</v>
       </c>
@@ -4002,10 +3927,10 @@
       <c r="AA36"/>
       <c r="AB36"/>
       <c r="AC36" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="37" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>70</v>
       </c>
@@ -4013,22 +3938,20 @@
         <v>70</v>
       </c>
       <c r="C37"/>
-      <c r="D37" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D37"/>
       <c r="E37" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="G37" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H37"/>
-      <c r="I37" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I37"/>
       <c r="J37" s="3" t="s">
         <v>9</v>
       </c>
@@ -4077,10 +4000,10 @@
       <c r="AA37"/>
       <c r="AB37"/>
       <c r="AC37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="38" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>71</v>
       </c>
@@ -4088,22 +4011,20 @@
         <v>71</v>
       </c>
       <c r="C38"/>
-      <c r="D38" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D38"/>
       <c r="E38" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="G38" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="H38" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H38"/>
-      <c r="I38" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I38"/>
       <c r="J38" s="3" t="s">
         <v>9</v>
       </c>
@@ -4156,10 +4077,10 @@
         <v>44</v>
       </c>
       <c r="AC38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="39" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>72</v>
       </c>
@@ -4167,22 +4088,20 @@
         <v>72</v>
       </c>
       <c r="C39"/>
-      <c r="D39" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D39"/>
       <c r="E39" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="G39" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H39"/>
-      <c r="I39" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I39"/>
       <c r="J39" s="3" t="s">
         <v>9</v>
       </c>
@@ -4239,10 +4158,10 @@
         <v>44</v>
       </c>
       <c r="AC39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="40" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>73</v>
       </c>
@@ -4250,22 +4169,20 @@
         <v>73</v>
       </c>
       <c r="C40"/>
-      <c r="D40" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D40"/>
       <c r="E40" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="G40" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H40"/>
-      <c r="I40" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I40"/>
       <c r="J40" s="3" t="s">
         <v>9</v>
       </c>
@@ -4314,10 +4231,10 @@
       <c r="AA40"/>
       <c r="AB40"/>
       <c r="AC40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="41" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>74</v>
       </c>
@@ -4325,22 +4242,20 @@
         <v>74</v>
       </c>
       <c r="C41"/>
-      <c r="D41" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D41"/>
       <c r="E41" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="G41" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H41"/>
-      <c r="I41" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I41"/>
       <c r="J41" s="3" t="s">
         <v>9</v>
       </c>
@@ -4389,10 +4304,10 @@
       <c r="AA41"/>
       <c r="AB41"/>
       <c r="AC41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="42" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>75</v>
       </c>
@@ -4400,22 +4315,20 @@
         <v>75</v>
       </c>
       <c r="C42"/>
-      <c r="D42" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D42"/>
       <c r="E42" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="G42" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="H42" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H42"/>
-      <c r="I42" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I42"/>
       <c r="J42" s="3" t="s">
         <v>9</v>
       </c>
@@ -4468,10 +4381,10 @@
         <v>44</v>
       </c>
       <c r="AC42" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="43" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>76</v>
       </c>
@@ -4479,22 +4392,20 @@
         <v>76</v>
       </c>
       <c r="C43"/>
-      <c r="D43" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D43"/>
       <c r="E43" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="G43" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H43"/>
-      <c r="I43" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I43"/>
       <c r="J43" s="3" t="s">
         <v>9</v>
       </c>
@@ -4551,10 +4462,10 @@
         <v>44</v>
       </c>
       <c r="AC43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="44" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>77</v>
       </c>
@@ -4562,22 +4473,20 @@
         <v>77</v>
       </c>
       <c r="C44"/>
-      <c r="D44" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D44"/>
       <c r="E44" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="G44" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="H44" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H44"/>
-      <c r="I44" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I44"/>
       <c r="J44" s="3" t="s">
         <v>9</v>
       </c>
@@ -4626,10 +4535,10 @@
       <c r="AA44"/>
       <c r="AB44"/>
       <c r="AC44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="45" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>78</v>
       </c>
@@ -4637,22 +4546,20 @@
         <v>78</v>
       </c>
       <c r="C45"/>
-      <c r="D45" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D45"/>
       <c r="E45" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="G45" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H45"/>
-      <c r="I45" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I45"/>
       <c r="J45" s="3" t="s">
         <v>9</v>
       </c>
@@ -4701,10 +4608,10 @@
       <c r="AA45"/>
       <c r="AB45"/>
       <c r="AC45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="46" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>79</v>
       </c>
@@ -4712,22 +4619,20 @@
         <v>79</v>
       </c>
       <c r="C46"/>
-      <c r="D46" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D46"/>
       <c r="E46" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="G46" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="H46" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H46"/>
-      <c r="I46" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I46"/>
       <c r="J46" s="3" t="s">
         <v>9</v>
       </c>
@@ -4780,10 +4685,10 @@
         <v>44</v>
       </c>
       <c r="AC46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="47" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>80</v>
       </c>
@@ -4791,22 +4696,20 @@
         <v>80</v>
       </c>
       <c r="C47"/>
-      <c r="D47" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D47"/>
       <c r="E47" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="G47" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="H47" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H47"/>
-      <c r="I47" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I47"/>
       <c r="J47" s="3" t="s">
         <v>9</v>
       </c>
@@ -4863,10 +4766,10 @@
         <v>44</v>
       </c>
       <c r="AC47" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="48" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>81</v>
       </c>
@@ -4874,22 +4777,20 @@
         <v>81</v>
       </c>
       <c r="C48"/>
-      <c r="D48" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D48"/>
       <c r="E48" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="G48" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="H48" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H48"/>
-      <c r="I48" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I48"/>
       <c r="J48" s="3" t="s">
         <v>9</v>
       </c>
@@ -4938,10 +4839,10 @@
       <c r="AA48"/>
       <c r="AB48"/>
       <c r="AC48" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="49" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>82</v>
       </c>
@@ -4949,22 +4850,20 @@
         <v>82</v>
       </c>
       <c r="C49"/>
-      <c r="D49" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D49"/>
       <c r="E49" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="G49" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="H49" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H49"/>
-      <c r="I49" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I49"/>
       <c r="J49" s="3" t="s">
         <v>9</v>
       </c>
@@ -5013,10 +4912,10 @@
       <c r="AA49"/>
       <c r="AB49"/>
       <c r="AC49" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="50" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>83</v>
       </c>
@@ -5024,22 +4923,20 @@
         <v>83</v>
       </c>
       <c r="C50"/>
-      <c r="D50" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D50"/>
       <c r="E50" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="G50" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="H50" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H50"/>
-      <c r="I50" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I50"/>
       <c r="J50" s="3" t="s">
         <v>9</v>
       </c>
@@ -5092,10 +4989,10 @@
         <v>44</v>
       </c>
       <c r="AC50" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="51" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>84</v>
       </c>
@@ -5103,22 +5000,20 @@
         <v>84</v>
       </c>
       <c r="C51"/>
-      <c r="D51" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D51"/>
       <c r="E51" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="G51" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="H51" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H51"/>
-      <c r="I51" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I51"/>
       <c r="J51" s="3" t="s">
         <v>9</v>
       </c>
@@ -5175,10 +5070,10 @@
         <v>44</v>
       </c>
       <c r="AC51" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="52" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>85</v>
       </c>
@@ -5186,22 +5081,20 @@
         <v>85</v>
       </c>
       <c r="C52"/>
-      <c r="D52" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D52"/>
       <c r="E52" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="G52" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="H52" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H52"/>
-      <c r="I52" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I52"/>
       <c r="J52" s="3" t="s">
         <v>9</v>
       </c>
@@ -5250,10 +5143,10 @@
       <c r="AA52"/>
       <c r="AB52"/>
       <c r="AC52" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="53" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>86</v>
       </c>
@@ -5261,22 +5154,20 @@
         <v>86</v>
       </c>
       <c r="C53"/>
-      <c r="D53" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D53"/>
       <c r="E53" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="G53" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="H53" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H53"/>
-      <c r="I53" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I53"/>
       <c r="J53" s="3" t="s">
         <v>9</v>
       </c>
@@ -5325,10 +5216,10 @@
       <c r="AA53"/>
       <c r="AB53"/>
       <c r="AC53" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="54" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>87</v>
       </c>
@@ -5336,22 +5227,20 @@
         <v>87</v>
       </c>
       <c r="C54"/>
-      <c r="D54" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D54"/>
       <c r="E54" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="G54" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="H54" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H54"/>
-      <c r="I54" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I54"/>
       <c r="J54" s="3" t="s">
         <v>9</v>
       </c>
@@ -5404,10 +5293,10 @@
         <v>44</v>
       </c>
       <c r="AC54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="55" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>88</v>
       </c>
@@ -5415,22 +5304,20 @@
         <v>88</v>
       </c>
       <c r="C55"/>
-      <c r="D55" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D55"/>
       <c r="E55" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="G55" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="H55" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H55"/>
-      <c r="I55" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I55"/>
       <c r="J55" s="3" t="s">
         <v>9</v>
       </c>
@@ -5487,10 +5374,10 @@
         <v>44</v>
       </c>
       <c r="AC55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="56" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>89</v>
       </c>
@@ -5498,22 +5385,20 @@
         <v>89</v>
       </c>
       <c r="C56"/>
-      <c r="D56" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D56"/>
       <c r="E56" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="G56" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="H56" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H56"/>
-      <c r="I56" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I56"/>
       <c r="J56" s="3" t="s">
         <v>9</v>
       </c>
@@ -5562,10 +5447,10 @@
       <c r="AA56"/>
       <c r="AB56"/>
       <c r="AC56" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="57" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>90</v>
       </c>
@@ -5573,22 +5458,20 @@
         <v>90</v>
       </c>
       <c r="C57"/>
-      <c r="D57" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D57"/>
       <c r="E57" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="G57" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="H57" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H57"/>
-      <c r="I57" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I57"/>
       <c r="J57" s="3" t="s">
         <v>9</v>
       </c>
@@ -5637,10 +5520,10 @@
       <c r="AA57"/>
       <c r="AB57"/>
       <c r="AC57" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="58" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>91</v>
       </c>
@@ -5648,22 +5531,20 @@
         <v>91</v>
       </c>
       <c r="C58"/>
-      <c r="D58" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D58"/>
       <c r="E58" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F58" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="G58" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="H58" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H58"/>
-      <c r="I58" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I58"/>
       <c r="J58" s="3" t="s">
         <v>9</v>
       </c>
@@ -5716,10 +5597,10 @@
         <v>44</v>
       </c>
       <c r="AC58" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="59" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>92</v>
       </c>
@@ -5727,22 +5608,20 @@
         <v>92</v>
       </c>
       <c r="C59"/>
-      <c r="D59" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D59"/>
       <c r="E59" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="G59" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="H59" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H59"/>
-      <c r="I59" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I59"/>
       <c r="J59" s="3" t="s">
         <v>9</v>
       </c>
@@ -5799,10 +5678,10 @@
         <v>44</v>
       </c>
       <c r="AC59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="60" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>93</v>
       </c>
@@ -5810,22 +5689,20 @@
         <v>93</v>
       </c>
       <c r="C60"/>
-      <c r="D60" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D60"/>
       <c r="E60" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="G60" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="H60" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H60"/>
-      <c r="I60" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I60"/>
       <c r="J60" s="3" t="s">
         <v>9</v>
       </c>
@@ -5874,10 +5751,10 @@
       <c r="AA60"/>
       <c r="AB60"/>
       <c r="AC60" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="61" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>94</v>
       </c>
@@ -5885,22 +5762,20 @@
         <v>94</v>
       </c>
       <c r="C61"/>
-      <c r="D61" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D61"/>
       <c r="E61" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="G61" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="H61" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H61"/>
-      <c r="I61" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I61"/>
       <c r="J61" s="3" t="s">
         <v>9</v>
       </c>
@@ -5949,10 +5824,10 @@
       <c r="AA61"/>
       <c r="AB61"/>
       <c r="AC61" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="62" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>95</v>
       </c>
@@ -5960,22 +5835,20 @@
         <v>95</v>
       </c>
       <c r="C62"/>
-      <c r="D62" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D62"/>
       <c r="E62" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="G62" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="H62" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H62"/>
-      <c r="I62" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I62"/>
       <c r="J62" s="3" t="s">
         <v>9</v>
       </c>
@@ -6028,10 +5901,10 @@
         <v>44</v>
       </c>
       <c r="AC62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="63" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>96</v>
       </c>
@@ -6039,22 +5912,20 @@
         <v>96</v>
       </c>
       <c r="C63"/>
-      <c r="D63" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D63"/>
       <c r="E63" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="G63" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H63"/>
-      <c r="I63" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I63"/>
       <c r="J63" s="3" t="s">
         <v>9</v>
       </c>
@@ -6111,10 +5982,10 @@
         <v>44</v>
       </c>
       <c r="AC63" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="64" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>97</v>
       </c>
@@ -6122,22 +5993,20 @@
         <v>97</v>
       </c>
       <c r="C64"/>
-      <c r="D64" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D64"/>
       <c r="E64" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F64" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="G64" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="H64" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H64"/>
-      <c r="I64" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I64"/>
       <c r="J64" s="3" t="s">
         <v>9</v>
       </c>
@@ -6186,10 +6055,10 @@
       <c r="AA64"/>
       <c r="AB64"/>
       <c r="AC64" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="65" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>98</v>
       </c>
@@ -6197,22 +6066,20 @@
         <v>98</v>
       </c>
       <c r="C65"/>
-      <c r="D65" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D65"/>
       <c r="E65" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F65" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="G65" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H65"/>
-      <c r="I65" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I65"/>
       <c r="J65" s="3" t="s">
         <v>9</v>
       </c>
@@ -6261,10 +6128,10 @@
       <c r="AA65"/>
       <c r="AB65"/>
       <c r="AC65" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="66" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>99</v>
       </c>
@@ -6272,22 +6139,20 @@
         <v>99</v>
       </c>
       <c r="C66"/>
-      <c r="D66" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D66"/>
       <c r="E66" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="G66" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="H66" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H66"/>
-      <c r="I66" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I66"/>
       <c r="J66" s="3" t="s">
         <v>9</v>
       </c>
@@ -6340,10 +6205,10 @@
         <v>44</v>
       </c>
       <c r="AC66" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="67" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>100</v>
       </c>
@@ -6351,22 +6216,20 @@
         <v>100</v>
       </c>
       <c r="C67"/>
-      <c r="D67" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D67"/>
       <c r="E67" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F67" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="G67" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="H67" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H67"/>
-      <c r="I67" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I67"/>
       <c r="J67" s="3" t="s">
         <v>9</v>
       </c>
@@ -6423,10 +6286,10 @@
         <v>44</v>
       </c>
       <c r="AC67" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="68" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>101</v>
       </c>
@@ -6434,22 +6297,20 @@
         <v>101</v>
       </c>
       <c r="C68"/>
-      <c r="D68" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D68"/>
       <c r="E68" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F68" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="G68" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="H68" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H68"/>
-      <c r="I68" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I68"/>
       <c r="J68" s="3" t="s">
         <v>9</v>
       </c>
@@ -6498,10 +6359,10 @@
       <c r="AA68"/>
       <c r="AB68"/>
       <c r="AC68" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="69" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>102</v>
       </c>
@@ -6509,22 +6370,20 @@
         <v>102</v>
       </c>
       <c r="C69"/>
-      <c r="D69" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D69"/>
       <c r="E69" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F69" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="G69" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="H69" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H69"/>
-      <c r="I69" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I69"/>
       <c r="J69" s="3" t="s">
         <v>9</v>
       </c>
@@ -6573,10 +6432,10 @@
       <c r="AA69"/>
       <c r="AB69"/>
       <c r="AC69" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="70" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>103</v>
       </c>
@@ -6584,22 +6443,20 @@
         <v>103</v>
       </c>
       <c r="C70"/>
-      <c r="D70" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D70"/>
       <c r="E70" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F70" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="G70" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="H70" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H70"/>
-      <c r="I70" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I70"/>
       <c r="J70" s="3" t="s">
         <v>9</v>
       </c>
@@ -6652,10 +6509,10 @@
         <v>44</v>
       </c>
       <c r="AC70" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="71" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>104</v>
       </c>
@@ -6663,22 +6520,20 @@
         <v>104</v>
       </c>
       <c r="C71"/>
-      <c r="D71" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D71"/>
       <c r="E71" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F71" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="G71" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="H71" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H71"/>
-      <c r="I71" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I71"/>
       <c r="J71" s="3" t="s">
         <v>9</v>
       </c>
@@ -6735,10 +6590,10 @@
         <v>44</v>
       </c>
       <c r="AC71" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="72" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>105</v>
       </c>
@@ -6746,22 +6601,20 @@
         <v>105</v>
       </c>
       <c r="C72"/>
-      <c r="D72" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D72"/>
       <c r="E72" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F72" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="G72" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="H72" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H72"/>
-      <c r="I72" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I72"/>
       <c r="J72" s="3" t="s">
         <v>9</v>
       </c>
@@ -6810,10 +6663,10 @@
       <c r="AA72"/>
       <c r="AB72"/>
       <c r="AC72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="25.5" r="73" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>106</v>
       </c>
@@ -6821,22 +6674,20 @@
         <v>106</v>
       </c>
       <c r="C73"/>
-      <c r="D73" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D73"/>
       <c r="E73" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="G73" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="H73" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H73"/>
-      <c r="I73" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I73"/>
       <c r="J73" s="3" t="s">
         <v>9</v>
       </c>
@@ -6885,10 +6736,10 @@
       <c r="AA73"/>
       <c r="AB73"/>
       <c r="AC73" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="74" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>107</v>
       </c>
@@ -6896,22 +6747,20 @@
         <v>107</v>
       </c>
       <c r="C74"/>
-      <c r="D74" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D74"/>
       <c r="E74" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F74" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="G74" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="H74" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H74"/>
-      <c r="I74" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I74"/>
       <c r="J74" s="3" t="s">
         <v>9</v>
       </c>
@@ -6964,10 +6813,10 @@
         <v>44</v>
       </c>
       <c r="AC74" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="75" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>108</v>
       </c>
@@ -6975,22 +6824,20 @@
         <v>108</v>
       </c>
       <c r="C75"/>
-      <c r="D75" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D75"/>
       <c r="E75" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="G75" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="H75" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H75"/>
-      <c r="I75" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I75"/>
       <c r="J75" s="3" t="s">
         <v>9</v>
       </c>
@@ -7043,10 +6890,10 @@
         <v>44</v>
       </c>
       <c r="AC75" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="76" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>109</v>
       </c>
@@ -7054,22 +6901,20 @@
         <v>109</v>
       </c>
       <c r="C76"/>
-      <c r="D76" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D76"/>
       <c r="E76" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="G76" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="H76" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H76"/>
-      <c r="I76" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I76"/>
       <c r="J76" s="3" t="s">
         <v>9</v>
       </c>
@@ -7122,10 +6967,10 @@
         <v>44</v>
       </c>
       <c r="AC76" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="77" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>110</v>
       </c>
@@ -7133,22 +6978,20 @@
         <v>110</v>
       </c>
       <c r="C77"/>
-      <c r="D77" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D77"/>
       <c r="E77" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="G77" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="H77" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H77"/>
-      <c r="I77" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I77"/>
       <c r="J77" s="3" t="s">
         <v>9</v>
       </c>
@@ -7201,10 +7044,10 @@
         <v>44</v>
       </c>
       <c r="AC77" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="78" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>111</v>
       </c>
@@ -7212,22 +7055,20 @@
         <v>111</v>
       </c>
       <c r="C78"/>
-      <c r="D78" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D78"/>
       <c r="E78" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="G78" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="H78" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H78"/>
-      <c r="I78" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I78"/>
       <c r="J78" s="5" t="s">
         <v>33</v>
       </c>
@@ -7280,10 +7121,10 @@
         <v>44</v>
       </c>
       <c r="AC78" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="79" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>112</v>
       </c>
@@ -7291,22 +7132,20 @@
         <v>112</v>
       </c>
       <c r="C79"/>
-      <c r="D79" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D79"/>
       <c r="E79" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="G79" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="H79" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H79"/>
-      <c r="I79" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I79"/>
       <c r="J79" s="5" t="s">
         <v>9</v>
       </c>
@@ -7361,10 +7200,10 @@
         <v>44</v>
       </c>
       <c r="AC79" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="80" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>113</v>
       </c>
@@ -7372,22 +7211,20 @@
         <v>113</v>
       </c>
       <c r="C80"/>
-      <c r="D80" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D80"/>
       <c r="E80" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="G80" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H80"/>
-      <c r="I80" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I80"/>
       <c r="J80" s="5" t="s">
         <v>9</v>
       </c>
@@ -7442,10 +7279,10 @@
         <v>44</v>
       </c>
       <c r="AC80" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="81" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>114</v>
       </c>
@@ -7453,22 +7290,20 @@
         <v>114</v>
       </c>
       <c r="C81"/>
-      <c r="D81" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D81"/>
       <c r="E81" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="G81" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="H81" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H81"/>
-      <c r="I81" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I81"/>
       <c r="J81" s="5" t="s">
         <v>34</v>
       </c>
@@ -7519,10 +7354,10 @@
         <v>44</v>
       </c>
       <c r="AC81" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="82" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>115</v>
       </c>
@@ -7530,22 +7365,20 @@
         <v>115</v>
       </c>
       <c r="C82"/>
-      <c r="D82" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D82"/>
       <c r="E82" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="G82" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="H82" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H82"/>
-      <c r="I82" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I82"/>
       <c r="J82" s="5" t="s">
         <v>33</v>
       </c>
@@ -7598,10 +7431,10 @@
         <v>44</v>
       </c>
       <c r="AC82" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="83" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>116</v>
       </c>
@@ -7609,22 +7442,20 @@
         <v>116</v>
       </c>
       <c r="C83"/>
-      <c r="D83" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D83"/>
       <c r="E83" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F83" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="G83" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="H83" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H83"/>
-      <c r="I83" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I83"/>
       <c r="J83" s="5" t="s">
         <v>9</v>
       </c>
@@ -7677,10 +7508,10 @@
         <v>44</v>
       </c>
       <c r="AC83" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row ht="51" r="84" spans="1:29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>117</v>
       </c>
@@ -7688,22 +7519,20 @@
         <v>117</v>
       </c>
       <c r="C84"/>
-      <c r="D84" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D84"/>
       <c r="E84" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F84" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="G84" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="H84" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H84"/>
-      <c r="I84" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="I84"/>
       <c r="J84" s="5" t="s">
         <v>34</v>
       </c>
@@ -7754,11 +7583,11 @@
         <v>44</v>
       </c>
       <c r="AC84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>